--- a/xlsx/篮球_intext.xlsx
+++ b/xlsx/篮球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="802">
   <si>
     <t>篮球</t>
   </si>
@@ -29,7 +29,7 @@
     <t>化学年表</t>
   </si>
   <si>
-    <t>政策_政策_美國_篮球</t>
+    <t>政策_政策_美国_篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%B1%83%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家籃球協會</t>
+    <t>美国国家篮球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>籃球場</t>
+    <t>篮球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>球類運動</t>
+    <t>球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B</t>
   </si>
   <si>
-    <t>奧運</t>
+    <t>奥运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E7%90%83</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E9%81%8B%E7%90%83</t>
   </si>
   <si>
-    <t>二次運球</t>
+    <t>二次运球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E7%8A%AF%E8%A6%8F</t>
   </si>
   <si>
-    <t>個人犯規</t>
+    <t>个人犯规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E9%AB%94%E8%82%B2%E9%81%93%E5%BE%B7%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>非體育道德行為</t>
+    <t>非体育道德行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%9A%E7%90%83_(%E7%AF%AE%E7%90%83)</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E7%8A%AF%E8%A6%8F</t>
   </si>
   <si>
-    <t>技術犯規</t>
+    <t>技术犯规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%AD%A6%E9%99%A2</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻塞諸塞州</t>
+    <t>麻塞诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%B8%82</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
+    <t>日内瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E7%B1%83%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界盃籃球賽</t>
+    <t>世界杯篮球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A5%B3%E5%AD%90%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界女子籃球錦標賽</t>
+    <t>世界女子篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%81%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>奧運會</t>
+    <t>奥运会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E9%9A%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>巴塞隆納</t>
+    <t>巴塞隆纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E6%9C%8D</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%A4%B2</t>
   </si>
   <si>
-    <t>短褲</t>
+    <t>短裤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%8A%E8%BA%AB%E8%A4%B2</t>
   </si>
   <si>
-    <t>緊身褲</t>
+    <t>紧身裤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%88%A4</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>比賽</t>
+    <t>比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E7%90%83</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%8B%92_(%E7%B1%83%E7%90%83)</t>
   </si>
   <si>
-    <t>中鋒 (籃球)</t>
+    <t>中锋 (篮球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%89%8D%E9%94%8B</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%83%BD%E8%A1%9B</t>
   </si>
   <si>
-    <t>雙能衛</t>
+    <t>双能卫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E4%B8%AD%E9%94%8B</t>
@@ -407,33 +407,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83%E4%BD%8D%E7%BD%AE</t>
   </si>
   <si>
-    <t>籃球位置</t>
+    <t>篮球位置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E7%90%83%E5%BE%8C%E8%A1%9B</t>
   </si>
   <si>
-    <t>控球後衛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%88%86%E5%BE%8C%E8%A1%9B</t>
   </si>
   <si>
-    <t>得分後衛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%89%8D%E9%8B%92</t>
   </si>
   <si>
-    <t>小前鋒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E7%90%83%E5%89%8D%E9%8B%92</t>
   </si>
   <si>
-    <t>控球前鋒</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%BB%83</t>
   </si>
   <si>
@@ -449,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80</t>
   </si>
   <si>
-    <t>節</t>
+    <t>节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E6%96%B0%E7%A7%80%E6%8C%91%E6%88%B0%E8%B3%BD</t>
   </si>
   <si>
-    <t>NBA新秀挑戰賽</t>
+    <t>NBA新秀挑战赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%8F%B7</t>
@@ -521,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%9D%E9%9B%A2</t>
   </si>
   <si>
-    <t>距離</t>
+    <t>距离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%94%B6%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>沒收比賽</t>
+    <t>没收比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -587,31 +575,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%ACBJ%E8%81%B7%E7%B1%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>日本BJ職籃聯盟</t>
+    <t>日本BJ职篮联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E9%99%90%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>極限籃球</t>
+    <t>极限篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83%E8%A1%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>籃球術語</t>
+    <t>篮球术语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B1%83%E7%90%83%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>國際籃球規則</t>
+    <t>国际篮球规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E9%A0%AD%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>街頭籃球</t>
+    <t>街头篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A%E7%AF%AE%E7%90%83%E6%AF%94%E8%B5%9B</t>
@@ -623,43 +611,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%89%8B%E8%AC%AC%E8%AA%A4</t>
   </si>
   <si>
-    <t>熱手謬誤</t>
+    <t>热手谬误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E6%A4%85%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>輪椅籃球</t>
+    <t>轮椅篮球</t>
   </si>
   <si>
     <t>http://zh.basketball.wikia.com/wiki/%E9%A6%96%E9%A0%81</t>
   </si>
   <si>
-    <t>Wikia籃球場</t>
+    <t>Wikia篮球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%AD%A3%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E9%81%8B%E5%8B%95%E6%9C%83%E7%B1%83%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>夏季世界大學運動會籃球比賽</t>
+    <t>夏季世界大学运动会篮球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U21%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>U21世界青年籃球錦標賽</t>
+    <t>U21世界青年篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U19%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>U19世界青年籃球錦標賽</t>
+    <t>U19世界青年篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U17%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>U17世界青年籃球錦標賽</t>
+    <t>U17世界青年篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%AF%AE%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A%E4%B8%96%E7%95%8C%E6%8E%92%E5%90%8D</t>
@@ -677,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>非洲籃球錦標賽</t>
+    <t>非洲篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B1%83%E7%90%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>亞洲籃球總會</t>
+    <t>亚洲篮球总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E7%AF%AE%E7%90%83%E9%94%A6%E6%A0%87%E8%B5%9B</t>
@@ -749,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2%E7%B1%83%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>大洋洲籃球錦標賽</t>
+    <t>大洋洲篮球锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83%E7%B1%83%E7%90%83%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲運動會籃球比賽</t>
+    <t>亚洲运动会篮球比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%9B%83%E7%B1%83%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲盃籃球賽</t>
+    <t>亚洲杯篮球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A7%91%E7%BB%B4%E5%A5%87%E6%B4%B2%E9%99%85%E7%AF%AE%E7%90%83%E5%86%A0%E5%86%9B%E6%9D%AF</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%93%8A%E6%96%AF%E7%9B%83%E5%9C%8B%E9%9A%9B%E7%B1%83%E7%90%83%E9%82%80%E8%AB%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>威廉·瓊斯盃國際籃球邀請賽</t>
+    <t>威廉·琼斯杯国际篮球邀请赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%85%A8%E5%9B%BD%E7%AF%AE%E7%90%83%E8%81%94%E8%B5%9B</t>
@@ -785,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>加拿大國家籃球聯賽</t>
+    <t>加拿大国家篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E5%8F%91%E5%B1%95%E8%81%94%E7%9B%9F</t>
@@ -809,25 +797,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%94%B7%E5%AD%90%E7%94%B2%E4%B8%80%E7%B5%84%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>香港男子甲一組籃球聯賽</t>
+    <t>香港男子甲一组篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>B聯賽</t>
+    <t>B联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>韓國籃球聯賽</t>
+    <t>韩国篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>超級籃球聯賽</t>
+    <t>超级篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E7%90%83%E8%81%94%E9%82%A6%E8%81%94%E8%B5%9B</t>
@@ -863,49 +851,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B1%83%E7%B8%BD%E5%86%A0%E8%BB%8D%E7%9B%83</t>
   </si>
   <si>
-    <t>亞洲籃總冠軍盃</t>
+    <t>亚洲篮总冠军杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E8%81%B7%E6%A5%AD%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>東南亞職業籃球聯賽</t>
+    <t>东南亚职业篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲籃球聯賽</t>
+    <t>欧洲篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%9B%83%E7%B1%83%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲盃籃球賽</t>
+    <t>欧洲杯篮球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B1%83%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>美國籃球協會</t>
+    <t>美国篮球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BJ%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>BJ聯盟</t>
+    <t>BJ联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%9A%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>團隊運動</t>
+    <t>团队运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>體育</t>
+    <t>体育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sports_governing_body</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%81%98%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>沙灘籃球</t>
+    <t>沙滩篮球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deaf_basketball</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>籃網球</t>
+    <t>篮网球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fast5</t>
@@ -995,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>足球類運動</t>
+    <t>足球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%86%85%E4%BA%94%E4%BA%BA%E5%88%B6%E8%B6%B3%E7%90%83</t>
@@ -1043,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>閃電足球</t>
+    <t>闪电足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/metro_footy</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>蓋爾式足球</t>
+    <t>盖尔式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ladies%27_Gaelic_football</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%A4%E7%9B%A4%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>烤盤足球</t>
+    <t>烤盘足球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AA%E6%97%97%E5%BC%8F%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>奪旗式美式足球</t>
+    <t>夺旗式美式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nine-man_football</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%85%A7%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>室內美式足球</t>
+    <t>室内美式足球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hybrid_sport</t>
@@ -1301,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>橄欖球類運動</t>
+    <t>橄榄球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>聯盟式橄欖球</t>
+    <t>联盟式橄榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Masters_Rugby_League</t>
@@ -1337,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B6%E5%BC%8F%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>帶式欖球</t>
+    <t>带式榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Touch_football_(rugby_league)</t>
@@ -1367,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%BA%BA%E5%88%B6%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>七人制橄欖球</t>
+    <t>七人制橄榄球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Snow_rugby</t>
@@ -1397,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E4%BA%BA%E9%96%80%E7%90%83</t>
   </si>
   <si>
-    <t>盲人門球</t>
+    <t>盲人门球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E7%90%83</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83%E5%B0%8D%E6%8A%97%E8%B3%BD</t>
   </si>
   <si>
-    <t>板球對抗賽</t>
+    <t>板球对抗赛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Twenty20_International</t>
@@ -1523,13 +1511,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%9E%E5%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>繞圈球</t>
+    <t>绕圈球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%98%E7%90%83</t>
   </si>
   <si>
-    <t>壘球</t>
+    <t>垒球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fastpitch_softball</t>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E5%85%A7%E8%A2%8B%E6%A3%8D%E7%90%83</t>
   </si>
   <si>
-    <t>室內袋棍球</t>
+    <t>室内袋棍球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Field_lacrosse</t>
@@ -1757,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%90%83</t>
   </si>
   <si>
-    <t>馬球</t>
+    <t>马球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auto_polo</t>
@@ -1769,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%89%87%E6%B0%B4%E7%90%83</t>
   </si>
   <si>
-    <t>輕艇水球</t>
+    <t>轻艇水球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cowboy_polo</t>
@@ -1805,9 +1793,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%90%83</t>
   </si>
   <si>
-    <t>马球</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/chovgan</t>
   </si>
   <si>
@@ -1907,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%AD%98%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>生存遊戲</t>
+    <t>生存游戏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Angleball</t>
@@ -1919,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%81%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>壁網球</t>
+    <t>壁网球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/frontenis</t>
@@ -1949,13 +1934,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%A3%BA</t>
   </si>
   <si>
-    <t>冰壺</t>
+    <t>冰壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8A%E7%90%83</t>
   </si>
   <si>
-    <t>單車球</t>
+    <t>单车球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Digor_(sports)</t>
@@ -1997,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E4%B8%8A%E6%BB%91%E7%9B%A4</t>
   </si>
   <si>
-    <t>冰上滑盤</t>
+    <t>冰上滑盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jereed</t>
@@ -2045,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E5%BD%A9%E6%BC%86%E5%BD%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>迷彩漆彈運動</t>
+    <t>迷彩漆弹运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pelota_mixteca</t>
@@ -2057,25 +2042,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>滾球</t>
+    <t>滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BC%8F%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>法式滾球</t>
+    <t>法式滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E5%9C%B0%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>硬地滾球</t>
+    <t>硬地滚球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E5%9C%B0%E6%BB%BE%E7%90%83</t>
   </si>
   <si>
-    <t>草地滾球</t>
+    <t>草地滚球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeu_Proven%C3%A7al</t>
@@ -2135,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E9%A3%9B%E7%9B%A4</t>
   </si>
   <si>
-    <t>終極飛盤</t>
+    <t>终极飞盘</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Underwater_football</t>
@@ -2195,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
   </si>
   <si>
-    <t>田徑</t>
+    <t>田径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BD%E7%90%83</t>
@@ -2207,25 +2192,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>拳擊</t>
+    <t>拳击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%89%87</t>
   </si>
   <si>
-    <t>輕艇</t>
+    <t>轻艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%89%87%E6%BF%80%E6%B5%81</t>
   </si>
   <si>
-    <t>輕艇激流</t>
+    <t>轻艇激流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%8A</t>
   </si>
   <si>
-    <t>自由車</t>
+    <t>自由车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%B7%AF%E8%87%AA%E8%A1%8C%E8%BD%A6%E8%B5%9B</t>
@@ -2237,7 +2222,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B4%E5%9C%B0%E8%87%AA%E7%94%B1%E8%BB%8A</t>
   </si>
   <si>
-    <t>場地自由車</t>
+    <t>场地自由车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%B3%E6%B0%B4</t>
@@ -2249,61 +2234,61 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%A1%93</t>
   </si>
   <si>
-    <t>馬術</t>
+    <t>马术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9B%E8%A3%9D%E8%88%9E%E6%AD%A5</t>
   </si>
   <si>
-    <t>盛裝舞步</t>
+    <t>盛装舞步</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%97%A5%E8%B3%BD</t>
   </si>
   <si>
-    <t>三日賽</t>
+    <t>三日赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%9C%E7%A4%99%E8%B6%85%E8%B6%8A</t>
   </si>
   <si>
-    <t>障礙超越</t>
+    <t>障碍超越</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8A%E5%8A%8D</t>
   </si>
   <si>
-    <t>擊劍</t>
+    <t>击剑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>高爾夫</t>
+    <t>高尔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%93%8D</t>
   </si>
   <si>
-    <t>體操</t>
+    <t>体操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E6%8A%80%E9%AB%94%E6%93%8D</t>
   </si>
   <si>
-    <t>競技體操</t>
+    <t>竞技体操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E5%BE%8B%E9%AB%94%E6%93%8D</t>
   </si>
   <si>
-    <t>韻律體操</t>
+    <t>韵律体操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E7%BF%BB%E5%BA%8A</t>
   </si>
   <si>
-    <t>彈翻床</t>
+    <t>弹翻床</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E9%81%93</t>
@@ -2333,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%84%E6%93%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>射擊運動</t>
+    <t>射击运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%B3%B3</t>
@@ -2363,25 +2348,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>網球</t>
+    <t>网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E4%BA%BA%E4%B8%89%E9%A0%85</t>
   </si>
   <si>
-    <t>鐵人三項</t>
+    <t>铁人三项</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%81%98%E6%8E%92%E7%90%83</t>
   </si>
   <si>
-    <t>沙灘排球</t>
+    <t>沙滩排球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E9%87%8D</t>
   </si>
   <si>
-    <t>舉重</t>
+    <t>举重</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E5%8A%9B</t>
@@ -2399,25 +2384,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%BC%8F%E8%A7%92%E5%8A%9B</t>
   </si>
   <si>
-    <t>希羅式角力</t>
+    <t>希罗式角力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8B%89%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83%E9%A0%85%E7%9B%AE</t>
   </si>
   <si>
-    <t>帕拉林匹克運動會項目</t>
+    <t>帕拉林匹克运动会项目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E5%A5%A7%E9%81%8B%E6%9C%83%E6%AF%94%E8%B3%BD%E9%A0%85%E7%9B%AE</t>
   </si>
   <si>
-    <t>冬季奧運會比賽項目</t>
+    <t>冬季奥运会比赛项目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2435,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4749,7 +4734,7 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4775,10 +4760,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4804,10 +4789,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4833,10 +4818,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4891,10 +4876,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -4920,10 +4905,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>15</v>
@@ -4949,10 +4934,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>18</v>
@@ -4978,10 +4963,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5007,10 +4992,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -5036,10 +5021,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>21</v>
@@ -5065,10 +5050,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>9</v>
@@ -5094,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>10</v>
@@ -5123,10 +5108,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5152,10 +5137,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5181,10 +5166,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5210,10 +5195,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5239,10 +5224,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -5268,10 +5253,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -5297,10 +5282,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5326,10 +5311,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5355,10 +5340,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>12</v>
@@ -5384,10 +5369,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5413,10 +5398,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5442,10 +5427,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5471,10 +5456,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5500,10 +5485,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5529,10 +5514,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5558,10 +5543,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5587,10 +5572,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5616,10 +5601,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5645,10 +5630,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5674,10 +5659,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5703,10 +5688,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5732,10 +5717,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5761,10 +5746,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5790,10 +5775,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5819,10 +5804,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5848,10 +5833,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5935,10 +5920,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5964,10 +5949,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5993,10 +5978,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6022,10 +6007,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6051,10 +6036,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6080,10 +6065,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6109,10 +6094,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6138,10 +6123,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>9</v>
@@ -6167,10 +6152,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6196,10 +6181,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6225,10 +6210,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6254,10 +6239,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6283,10 +6268,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -6312,10 +6297,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -6341,10 +6326,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6370,10 +6355,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6399,10 +6384,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6428,10 +6413,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6457,10 +6442,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6486,10 +6471,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6515,10 +6500,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6544,10 +6529,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6573,10 +6558,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6602,10 +6587,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F132" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6631,10 +6616,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6660,10 +6645,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -6689,10 +6674,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6718,10 +6703,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6747,10 +6732,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6776,10 +6761,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6805,10 +6790,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6834,10 +6819,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6863,10 +6848,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6892,10 +6877,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F142" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6921,10 +6906,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6950,10 +6935,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6979,10 +6964,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7008,10 +6993,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7037,10 +7022,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7066,10 +7051,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7095,10 +7080,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7124,10 +7109,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7153,10 +7138,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7182,10 +7167,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7211,10 +7196,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7240,10 +7225,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -7269,10 +7254,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -7298,10 +7283,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7327,10 +7312,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7356,10 +7341,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7385,10 +7370,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>6</v>
@@ -7414,10 +7399,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7443,10 +7428,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7472,10 +7457,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7501,10 +7486,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F163" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -7530,10 +7515,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7559,10 +7544,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7588,10 +7573,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7617,10 +7602,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7646,10 +7631,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7675,10 +7660,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7704,10 +7689,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7733,10 +7718,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>14</v>
@@ -7762,10 +7747,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7791,10 +7776,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7820,10 +7805,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7849,10 +7834,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -7878,10 +7863,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7907,10 +7892,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7936,10 +7921,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7965,10 +7950,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7994,10 +7979,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8023,10 +8008,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8052,10 +8037,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8081,10 +8066,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8110,10 +8095,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8139,10 +8124,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8168,10 +8153,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8197,10 +8182,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8226,10 +8211,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8255,10 +8240,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8284,10 +8269,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8313,10 +8298,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8342,10 +8327,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8371,10 +8356,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8400,10 +8385,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8429,10 +8414,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8458,10 +8443,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8487,10 +8472,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8516,10 +8501,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8545,10 +8530,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8574,10 +8559,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8603,10 +8588,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8632,10 +8617,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8661,10 +8646,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8690,10 +8675,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8719,10 +8704,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8748,10 +8733,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8777,10 +8762,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8806,10 +8791,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8835,10 +8820,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8864,10 +8849,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8893,10 +8878,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8922,10 +8907,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8951,10 +8936,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8980,10 +8965,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9009,10 +8994,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9038,10 +9023,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9067,10 +9052,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9096,10 +9081,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9125,10 +9110,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9154,10 +9139,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9183,10 +9168,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9212,10 +9197,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>8</v>
@@ -9241,10 +9226,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9270,10 +9255,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9299,10 +9284,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9328,10 +9313,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9357,10 +9342,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9386,10 +9371,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9415,10 +9400,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9444,10 +9429,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9473,10 +9458,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9502,10 +9487,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9531,10 +9516,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9560,10 +9545,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9589,10 +9574,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9618,10 +9603,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9647,10 +9632,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9676,10 +9661,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9705,10 +9690,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9734,10 +9719,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9763,10 +9748,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9792,10 +9777,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9821,10 +9806,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9850,10 +9835,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9879,10 +9864,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9908,10 +9893,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9937,10 +9922,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9966,10 +9951,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9995,10 +9980,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10024,10 +10009,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10053,10 +10038,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10082,10 +10067,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10111,10 +10096,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10140,10 +10125,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10169,10 +10154,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10198,10 +10183,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10227,10 +10212,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10256,10 +10241,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10285,10 +10270,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10314,10 +10299,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10343,10 +10328,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10372,10 +10357,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10401,10 +10386,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10430,10 +10415,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10459,10 +10444,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10488,10 +10473,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10517,10 +10502,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10546,10 +10531,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10575,10 +10560,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10604,10 +10589,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10633,10 +10618,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10662,10 +10647,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10691,10 +10676,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10720,10 +10705,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10749,10 +10734,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10778,10 +10763,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10807,10 +10792,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10836,10 +10821,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10865,10 +10850,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10894,10 +10879,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10923,10 +10908,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
         <v>12</v>
@@ -10952,10 +10937,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10981,10 +10966,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11010,10 +10995,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11039,10 +11024,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11068,10 +11053,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11097,10 +11082,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11126,10 +11111,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11155,10 +11140,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11184,10 +11169,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11213,10 +11198,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11242,10 +11227,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11271,10 +11256,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11300,10 +11285,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11329,10 +11314,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11358,10 +11343,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11387,10 +11372,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11416,10 +11401,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11445,10 +11430,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11474,10 +11459,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11503,10 +11488,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11532,10 +11517,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11561,10 +11546,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11590,10 +11575,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11619,10 +11604,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11648,10 +11633,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11677,10 +11662,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11706,10 +11691,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11735,10 +11720,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11764,10 +11749,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11793,10 +11778,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11822,10 +11807,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11851,10 +11836,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11880,10 +11865,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11909,10 +11894,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11938,10 +11923,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11967,10 +11952,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11996,10 +11981,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12025,10 +12010,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12054,10 +12039,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12083,10 +12068,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12112,10 +12097,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12141,10 +12126,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12170,10 +12155,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12199,10 +12184,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12228,10 +12213,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12257,10 +12242,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12286,10 +12271,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12315,10 +12300,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12344,10 +12329,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12373,10 +12358,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12402,10 +12387,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12431,10 +12416,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12460,10 +12445,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12489,10 +12474,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12518,10 +12503,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12547,10 +12532,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12576,10 +12561,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12605,10 +12590,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12634,10 +12619,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12663,10 +12648,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12692,10 +12677,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12721,10 +12706,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12750,10 +12735,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12779,10 +12764,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12808,10 +12793,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12837,10 +12822,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12866,10 +12851,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12895,10 +12880,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G349" t="n">
         <v>5</v>
@@ -12924,10 +12909,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12953,10 +12938,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12982,10 +12967,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13011,10 +12996,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13040,10 +13025,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13069,10 +13054,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13098,10 +13083,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13127,10 +13112,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13156,10 +13141,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13185,10 +13170,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13214,10 +13199,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13243,10 +13228,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13272,10 +13257,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13301,10 +13286,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13330,10 +13315,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13359,10 +13344,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13388,10 +13373,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -13417,10 +13402,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13446,10 +13431,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13475,10 +13460,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13504,10 +13489,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13533,10 +13518,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13562,10 +13547,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13591,10 +13576,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13620,10 +13605,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13649,10 +13634,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13678,10 +13663,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G376" t="n">
         <v>4</v>
@@ -13707,10 +13692,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13736,10 +13721,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -13765,10 +13750,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13794,10 +13779,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13823,10 +13808,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13852,10 +13837,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -13881,10 +13866,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13910,10 +13895,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13939,10 +13924,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13968,10 +13953,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13997,10 +13982,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14026,10 +14011,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14055,10 +14040,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14084,10 +14069,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14113,10 +14098,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14142,10 +14127,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14171,10 +14156,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14200,10 +14185,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F394" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14229,10 +14214,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F395" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14258,10 +14243,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14287,10 +14272,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14316,10 +14301,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14345,10 +14330,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14374,10 +14359,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14403,10 +14388,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14432,10 +14417,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -14461,10 +14446,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14490,10 +14475,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14519,10 +14504,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14548,10 +14533,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -14577,10 +14562,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14606,10 +14591,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14635,10 +14620,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14664,10 +14649,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14693,10 +14678,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -14722,10 +14707,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F412" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14751,10 +14736,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F413" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14780,10 +14765,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F414" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>

--- a/xlsx/篮球_intext.xlsx
+++ b/xlsx/篮球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>化学年表</t>
   </si>
   <si>
-    <t>政策_政策_美國_篮球</t>
+    <t>体育运动_体育运动_体育_篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
